--- a/teaching/traditional_assets/database/data/russia/russia_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/russia/russia_financial_svcs_non_bank_insurance.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.102</v>
+        <v>-0.0461</v>
       </c>
       <c r="E2">
-        <v>0.0788</v>
+        <v>0.0596</v>
       </c>
       <c r="F2">
-        <v>0.06</v>
+        <v>0.0784</v>
       </c>
       <c r="G2">
-        <v>0.4084191670398567</v>
+        <v>0.3766959587790005</v>
       </c>
       <c r="H2">
-        <v>0.4084191670398567</v>
+        <v>0.3766959587790005</v>
       </c>
       <c r="I2">
-        <v>0.3495074013284057</v>
+        <v>0.3606019574522223</v>
       </c>
       <c r="J2">
-        <v>0.3052705970843539</v>
+        <v>0.3178377756735956</v>
       </c>
       <c r="K2">
-        <v>449.84</v>
+        <v>559.46</v>
       </c>
       <c r="L2">
-        <v>0.4379368757179852</v>
+        <v>0.508410501540335</v>
       </c>
       <c r="M2">
-        <v>366.9</v>
+        <v>592.2</v>
       </c>
       <c r="N2">
-        <v>0.06886649023030576</v>
+        <v>0.09892422825070159</v>
       </c>
       <c r="O2">
-        <v>0.8156233327405299</v>
+        <v>1.058520716405105</v>
       </c>
       <c r="P2">
-        <v>302.1</v>
+        <v>253.2</v>
       </c>
       <c r="Q2">
-        <v>0.05670364322315447</v>
+        <v>0.0422958706401176</v>
       </c>
       <c r="R2">
-        <v>0.6715721145296105</v>
+        <v>0.4525792728702677</v>
       </c>
       <c r="S2">
-        <v>64.8</v>
+        <v>339</v>
       </c>
       <c r="T2">
-        <v>0.1766148814390842</v>
+        <v>0.5724417426545085</v>
       </c>
       <c r="U2">
-        <v>10150.649</v>
+        <v>6305.047</v>
       </c>
       <c r="V2">
-        <v>1.905259117442799</v>
+        <v>1.053228484565014</v>
       </c>
       <c r="W2">
-        <v>0.09016445162048722</v>
+        <v>0.1418558830012848</v>
       </c>
       <c r="X2">
-        <v>0.03073439821451768</v>
+        <v>0.02064507050059136</v>
       </c>
       <c r="Y2">
-        <v>0.05943005340596954</v>
+        <v>0.1212108125006935</v>
       </c>
       <c r="Z2">
-        <v>1.496463594383601</v>
+        <v>-0.1733844112066068</v>
       </c>
       <c r="AA2">
-        <v>-0.02148194271481943</v>
+        <v>-0.01029795636618661</v>
       </c>
       <c r="AB2">
-        <v>0.0310474436500936</v>
+        <v>0.02079679292479834</v>
       </c>
       <c r="AC2">
-        <v>-0.05973803052176635</v>
+        <v>-0.04364914128770801</v>
       </c>
       <c r="AD2">
-        <v>1232.6</v>
+        <v>1154.72</v>
       </c>
       <c r="AE2">
-        <v>3.264937517440694</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1235.864937517441</v>
+        <v>1154.72</v>
       </c>
       <c r="AG2">
-        <v>-8914.784062482559</v>
+        <v>-5150.327</v>
       </c>
       <c r="AH2">
-        <v>0.1882917209294628</v>
+        <v>0.1617001254705144</v>
       </c>
       <c r="AI2">
-        <v>0.2589682160773632</v>
+        <v>0.2514951801403487</v>
       </c>
       <c r="AJ2">
-        <v>2.485245371225784</v>
+        <v>-6.160140322675171</v>
       </c>
       <c r="AK2">
-        <v>1.657520913143504</v>
+        <v>3.005512284762086</v>
       </c>
       <c r="AL2">
-        <v>33.8</v>
+        <v>31.63</v>
       </c>
       <c r="AM2">
-        <v>33.654</v>
+        <v>31.63</v>
       </c>
       <c r="AN2">
-        <v>3.11577350859454</v>
+        <v>2.74097987086973</v>
       </c>
       <c r="AO2">
-        <v>10.56627218934911</v>
+        <v>12.54536832121404</v>
       </c>
       <c r="AP2">
-        <v>-22.53484343398018</v>
+        <v>-12.2254248955564</v>
       </c>
       <c r="AQ2">
-        <v>10.61211148749034</v>
+        <v>12.54536832121404</v>
       </c>
     </row>
     <row r="3">
@@ -727,6 +727,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.122</v>
+      </c>
+      <c r="E3">
+        <v>0.131</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -740,61 +746,58 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.9</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="L3">
-        <v>0.4440298507462687</v>
+        <v>1.009164969450102</v>
       </c>
       <c r="M3">
-        <v>12</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.02118270079435128</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>1.008403361344538</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>12</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02118270079435128</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>1.008403361344538</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>0.8090000000000001</v>
+        <v>0.927</v>
       </c>
       <c r="V3">
-        <v>0.001428067078552515</v>
+        <v>0.002049524651779792</v>
       </c>
       <c r="W3">
-        <v>0.07954545454545454</v>
+        <v>0.5930580490724117</v>
       </c>
       <c r="X3">
-        <v>0.03022436156583486</v>
+        <v>0.02055145315271485</v>
       </c>
       <c r="Y3">
-        <v>0.04932109297961969</v>
+        <v>0.5725065959196968</v>
       </c>
       <c r="Z3">
-        <v>0.01698998351718017</v>
+        <v>0.5905310570024837</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03022436156583486</v>
+        <v>0.02055145315271485</v>
       </c>
       <c r="AC3">
-        <v>-0.03022436156583486</v>
+        <v>-0.02055145315271485</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -806,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.8090000000000001</v>
+        <v>-0.927</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -815,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.001430109370663489</v>
+        <v>-0.002053733829892351</v>
       </c>
       <c r="AK3">
-        <v>-0.004864965632535736</v>
+        <v>-0.003692153278130265</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -835,7 +838,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Public Joint Stock Company "SAFMAR Financial investments" (MISX:SFIN)</t>
+          <t>Public Joint-Stock Company Investment Company IC Russ-Invest (MISX:RUSI)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -843,104 +846,119 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>-0.235</v>
+      </c>
+      <c r="E4">
+        <v>-0.19</v>
+      </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.154228855721393</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.154228855721393</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-0.691542288557214</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-0.637960958565949</v>
       </c>
       <c r="K4">
-        <v>132.5</v>
+        <v>2.46</v>
       </c>
       <c r="L4">
-        <v>0.3623188405797101</v>
+        <v>1.223880597014926</v>
       </c>
       <c r="M4">
-        <v>87.09999999999999</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.110253164556962</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.6573584905660377</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>22.3</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.02822784810126583</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.1683018867924528</v>
+        <v>-0</v>
       </c>
       <c r="S4">
-        <v>64.8</v>
-      </c>
-      <c r="T4">
-        <v>0.7439724454649828</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>33.3</v>
+        <v>1.42</v>
       </c>
       <c r="V4">
-        <v>0.04215189873417721</v>
+        <v>0.02526690391459074</v>
       </c>
       <c r="W4">
-        <v>0.1007834486955199</v>
+        <v>0.03710407239819005</v>
       </c>
       <c r="X4">
-        <v>0.03896123788119928</v>
+        <v>0.02071481944760124</v>
       </c>
       <c r="Y4">
-        <v>0.06182221081432061</v>
+        <v>0.01638925295058881</v>
       </c>
       <c r="Z4">
-        <v>0.2892052194543298</v>
+        <v>0.03228397044651461</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-0.02059591273237323</v>
       </c>
       <c r="AB4">
-        <v>0.04628781404805898</v>
+        <v>0.02099089956297952</v>
       </c>
       <c r="AC4">
-        <v>-0.04628781404805898</v>
+        <v>-0.04158681229535276</v>
       </c>
       <c r="AD4">
-        <v>782.6</v>
+        <v>1.02</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>782.6</v>
+        <v>1.02</v>
       </c>
       <c r="AG4">
-        <v>749.3000000000001</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.4976472084446141</v>
+        <v>0.01782593498776651</v>
       </c>
       <c r="AI4">
-        <v>0.3637969505392339</v>
+        <v>0.01657997399219766</v>
       </c>
       <c r="AJ4">
-        <v>0.4867797050607419</v>
+        <v>-0.007168458781362005</v>
       </c>
       <c r="AK4">
-        <v>0.3537938524009632</v>
+        <v>-0.00665557404326123</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.03</v>
+      </c>
+      <c r="AN4">
+        <v>-0.8360655737704918</v>
+      </c>
+      <c r="AO4">
+        <v>-46.33333333333333</v>
+      </c>
+      <c r="AP4">
+        <v>0.3278688524590163</v>
+      </c>
+      <c r="AQ4">
+        <v>-46.33333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -951,7 +969,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Public Joint-Stock Company Investment Company IC Russ-Invest (MISX:RUSI)</t>
+          <t>Public Joint Stock Company "SAFMAR Financial investments" (MISX:SFIN)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -960,112 +978,109 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.307</v>
+        <v>0.338</v>
+      </c>
+      <c r="E5">
+        <v>0.388</v>
       </c>
       <c r="G5">
-        <v>-1.234375</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-1.234375</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>-2.15625</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-2.15625</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>-1.16</v>
+        <v>148.1</v>
       </c>
       <c r="L5">
-        <v>-0.9062499999999999</v>
+        <v>0.3786755305548453</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>361.7</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.5899526993965095</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.442268737339635</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>22.7</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.03702495514597945</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.1532748143146523</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>339</v>
+      </c>
+      <c r="T5">
+        <v>0.9372408072988665</v>
       </c>
       <c r="U5">
-        <v>4.04</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="V5">
-        <v>0.07724665391969408</v>
+        <v>0.1086282824987767</v>
       </c>
       <c r="W5">
-        <v>-0.01710914454277286</v>
+        <v>0.1232933732933733</v>
       </c>
       <c r="X5">
-        <v>0.03022436156583486</v>
+        <v>0.03729998716885198</v>
       </c>
       <c r="Y5">
-        <v>-0.04733350610860772</v>
+        <v>0.0859933861245213</v>
       </c>
       <c r="Z5">
-        <v>0.01992528019925281</v>
+        <v>0.2789188418199972</v>
       </c>
       <c r="AA5">
-        <v>-0.04296388542963885</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03022436156583486</v>
+        <v>0.04571147028006327</v>
       </c>
       <c r="AC5">
-        <v>-0.07318824699547372</v>
+        <v>-0.04571147028006327</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1140.8</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1140.8</v>
       </c>
       <c r="AG5">
-        <v>-4.04</v>
+        <v>1074.2</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.6504361708193169</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.4451207616372079</v>
       </c>
       <c r="AJ5">
-        <v>-0.08371322005801907</v>
+        <v>0.6366384164049073</v>
       </c>
       <c r="AK5">
-        <v>-0.06457800511508952</v>
+        <v>0.4303168689660697</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>-0.146</v>
-      </c>
-      <c r="AN5">
-        <v>-0</v>
-      </c>
-      <c r="AP5">
-        <v>1.541984732824427</v>
-      </c>
-      <c r="AQ5">
-        <v>18.9041095890411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1085,49 +1100,49 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.103</v>
+        <v>0.0298</v>
       </c>
       <c r="E6">
-        <v>0.0788</v>
+        <v>-0.0118</v>
       </c>
       <c r="F6">
-        <v>0.06</v>
+        <v>0.0784</v>
       </c>
       <c r="G6">
-        <v>0.664824755288917</v>
+        <v>0.6767361681168937</v>
       </c>
       <c r="H6">
-        <v>0.664824755288917</v>
+        <v>0.6767361681168937</v>
       </c>
       <c r="I6">
-        <v>0.5711509512101545</v>
+        <v>0.6537514365457232</v>
       </c>
       <c r="J6">
-        <v>0.4595863317419937</v>
+        <v>0.521789251619913</v>
       </c>
       <c r="K6">
-        <v>306.6</v>
+        <v>309.8</v>
       </c>
       <c r="L6">
-        <v>0.484054310072624</v>
+        <v>0.508619274339189</v>
       </c>
       <c r="M6">
-        <v>267.8</v>
+        <v>230.5</v>
       </c>
       <c r="N6">
-        <v>0.06833550230932149</v>
+        <v>0.04738118730471962</v>
       </c>
       <c r="O6">
-        <v>0.8734507501630789</v>
+        <v>0.7440284054228534</v>
       </c>
       <c r="P6">
-        <v>267.8</v>
+        <v>230.5</v>
       </c>
       <c r="Q6">
-        <v>0.06833550230932149</v>
+        <v>0.04738118730471962</v>
       </c>
       <c r="R6">
-        <v>0.8734507501630789</v>
+        <v>0.7440284054228534</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1136,73 +1151,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>10112.5</v>
+        <v>6236.1</v>
       </c>
       <c r="V6">
-        <v>2.580443491796167</v>
+        <v>1.281882091761223</v>
       </c>
       <c r="W6">
-        <v>0.1671482309327809</v>
+        <v>0.1604183927091964</v>
       </c>
       <c r="X6">
-        <v>0.03124443486320051</v>
+        <v>0.02057532155358148</v>
       </c>
       <c r="Y6">
-        <v>0.1359037960695804</v>
+        <v>0.1398430711556149</v>
       </c>
       <c r="Z6">
-        <v>-0.2853493692583309</v>
+        <v>-0.07635319778373906</v>
       </c>
       <c r="AA6">
-        <v>-0.1311426698823279</v>
+        <v>-0.0398402779303644</v>
       </c>
       <c r="AB6">
-        <v>0.03187052573435234</v>
+        <v>0.02060268628661715</v>
       </c>
       <c r="AC6">
-        <v>-0.1630131956166802</v>
+        <v>-0.06044296421698155</v>
       </c>
       <c r="AD6">
-        <v>450</v>
+        <v>12.9</v>
       </c>
       <c r="AE6">
-        <v>3.264937517440694</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>453.2649375174407</v>
+        <v>12.9</v>
       </c>
       <c r="AG6">
-        <v>-9659.235062482559</v>
+        <v>-6223.200000000001</v>
       </c>
       <c r="AH6">
-        <v>0.1036705943154123</v>
+        <v>0.002644689095270312</v>
       </c>
       <c r="AI6">
-        <v>0.1898599289930006</v>
+        <v>0.007521865889212828</v>
       </c>
       <c r="AJ6">
-        <v>1.682695340488569</v>
+        <v>4.581272084805653</v>
       </c>
       <c r="AK6">
-        <v>1.250364554710899</v>
+        <v>1.376479175421911</v>
       </c>
       <c r="AL6">
-        <v>33.8</v>
+        <v>31.6</v>
       </c>
       <c r="AM6">
-        <v>33.8</v>
+        <v>31.6</v>
       </c>
       <c r="AN6">
-        <v>1.130028627391894</v>
+        <v>0.03053254437869823</v>
       </c>
       <c r="AO6">
-        <v>10.64792899408284</v>
+        <v>12.60126582278481</v>
       </c>
       <c r="AP6">
-        <v>-24.25602697625072</v>
+        <v>-14.7294674556213</v>
       </c>
       <c r="AQ6">
-        <v>10.64792899408284</v>
+        <v>12.60126582278481</v>
       </c>
     </row>
   </sheetData>
